--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4290299.263801479</v>
+        <v>4288419.084031152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7238406.202617426</v>
+        <v>7238406.202617425</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>320.5360847970597</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>236.0502377560821</v>
+        <v>341.2578399936063</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.39183767369501</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>215.6927484323853</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385007</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.68762643336666</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.2787299119453</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>37.6355966898284</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>95.63144552412793</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>238.7113962579908</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108797</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>111.4522747958127</v>
       </c>
       <c r="D22" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119.7229506509113</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>70.41761368552002</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>7.018598297944221</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>43.83392402588301</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>265.6836731044959</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.6289856910273</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>46.60751101925888</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329079</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4147,7 +4147,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.090798542223</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>538.1282816018113</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>538.1282816018113</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>538.1282816018113</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>531.1827808526078</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.685817956713</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241956</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.239967633105</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>862.1113288466634</v>
+        <v>874.9271131227914</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407765</v>
+        <v>620.2426249169046</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>330.8254548799439</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>330.8254548799439</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>110.0328757364138</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>493.3819640384821</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404648</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>582.1916992613351</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>193.8145111816272</v>
+        <v>390.7388757735548</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903316</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173148</v>
+        <v>843.9115970104234</v>
       </c>
       <c r="V19" t="n">
-        <v>852.2162060235353</v>
+        <v>600.3792818608108</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428487</v>
+        <v>600.3792818608108</v>
       </c>
       <c r="X19" t="n">
-        <v>573.9512090428487</v>
+        <v>600.3792818608108</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.3108029555927</v>
+        <v>390.7388757735548</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>357.1138312011068</v>
+        <v>209.7951468095917</v>
       </c>
       <c r="C22" t="n">
-        <v>357.1138312011068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>218.1493648450452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>218.1493648450452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>218.1493648450452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1373.724986903317</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>1095.748521173149</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V22" t="n">
-        <v>852.2162060235364</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="W22" t="n">
-        <v>573.95120904285</v>
+        <v>806.7692225125564</v>
       </c>
       <c r="X22" t="n">
-        <v>357.1138312011068</v>
+        <v>589.9318446708132</v>
       </c>
       <c r="Y22" t="n">
-        <v>357.1138312011068</v>
+        <v>380.2914385835572</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,13 +5999,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729324</v>
+        <v>391.7620218580375</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729324</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729324</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M25" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875142</v>
+        <v>1273.802056521417</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449748</v>
+        <v>995.8255907912491</v>
       </c>
       <c r="V25" t="n">
-        <v>663.448368995362</v>
+        <v>988.7360975610023</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146756</v>
+        <v>988.7360975610023</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729324</v>
+        <v>771.8987197192591</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729324</v>
+        <v>562.2583136320031</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>369.715786428041</v>
+        <v>419.7240841473654</v>
       </c>
       <c r="C28" t="n">
-        <v>369.715786428041</v>
+        <v>419.7240841473654</v>
       </c>
       <c r="D28" t="n">
-        <v>369.715786428041</v>
+        <v>280.7596177913038</v>
       </c>
       <c r="E28" t="n">
-        <v>232.9548659019221</v>
+        <v>280.7596177913038</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1586.358229057537</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U28" t="n">
-        <v>1317.990882487339</v>
+        <v>807.0577537630742</v>
       </c>
       <c r="V28" t="n">
-        <v>1074.458567337726</v>
+        <v>807.0577537630742</v>
       </c>
       <c r="W28" t="n">
-        <v>796.1935703570401</v>
+        <v>807.0577537630742</v>
       </c>
       <c r="X28" t="n">
-        <v>579.3561925152969</v>
+        <v>590.220375921331</v>
       </c>
       <c r="Y28" t="n">
-        <v>369.715786428041</v>
+        <v>590.220375921331</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,19 +6546,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.0831329982386</v>
+        <v>233.9780119864047</v>
       </c>
       <c r="C31" t="n">
-        <v>638.0831329982386</v>
+        <v>233.9780119864047</v>
       </c>
       <c r="D31" t="n">
-        <v>499.118666642177</v>
+        <v>233.9780119864047</v>
       </c>
       <c r="E31" t="n">
-        <v>372.2207012977049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>236.4829268560687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>236.4829268560687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U31" t="n">
-        <v>1586.358229057537</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V31" t="n">
-        <v>1342.825913907924</v>
+        <v>776.1586807676819</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.560916927238</v>
+        <v>497.8936837869953</v>
       </c>
       <c r="X31" t="n">
-        <v>847.7235390854945</v>
+        <v>281.0563059452521</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.0831329982386</v>
+        <v>233.9780119864047</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>231.9043177021524</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>380.9740019042123</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L36" t="n">
-        <v>627.7391298106763</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M36" t="n">
-        <v>1396.107276203138</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,10 +7126,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506735</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7500,16 +7500,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7816,10 +7816,10 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.980268792977</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299263</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>277.6717966208063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M24" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>94.13752431970605</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978208</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>167.1443537485706</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>75.2688311464437</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>248.8874016467626</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>60.57472424878855</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856063</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808144</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>36.48530481487524</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>44.75389497710368</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
-        <v>35.72996648675486</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>64.97569763533775</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808141</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>234.0783937001724</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90.54647267133687</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>9.513027968370125</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>9.764325629830427</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856056</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>160.9364910071245</v>
       </c>
     </row>
     <row r="32">
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612668.3267851266</v>
+        <v>612668.3267851267</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612668.3267851267</v>
+        <v>612668.3267851266</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612668.3267851267</v>
+        <v>612668.3267851266</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26320,40 +26320,40 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="H2" t="n">
         <v>788375.3505184435</v>
       </c>
       <c r="I2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="J2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184437</v>
       </c>
       <c r="K2" t="n">
         <v>788375.3505184434</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642847</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="M2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="N2" t="n">
         <v>821041.7698642844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642847</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569088</v>
+        <v>8832.521060569085</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687079</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971003</v>
       </c>
       <c r="H4" t="n">
         <v>25807.53208971002</v>
       </c>
       <c r="I4" t="n">
+        <v>25807.53208971002</v>
+      </c>
+      <c r="J4" t="n">
         <v>25807.53208971001</v>
       </c>
-      <c r="J4" t="n">
-        <v>25807.53208971003</v>
-      </c>
       <c r="K4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819125</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
+        <v>92915.50246501787</v>
+      </c>
+      <c r="J5" t="n">
         <v>92915.50246501785</v>
       </c>
-      <c r="J5" t="n">
-        <v>92915.50246501787</v>
-      </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019503</v>
+        <v>-17418.05520019523</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
@@ -26528,40 +26528,40 @@
         <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629343</v>
+        <v>142638.6903369623</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398301</v>
+        <v>667798.726813858</v>
       </c>
       <c r="G6" t="n">
-        <v>660819.7949031463</v>
+        <v>660738.1288547821</v>
       </c>
       <c r="H6" t="n">
-        <v>669652.3159637157</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="I6" t="n">
-        <v>669652.3159637154</v>
+        <v>669570.6499153512</v>
       </c>
       <c r="J6" t="n">
-        <v>493229.0967711224</v>
+        <v>493147.4307227583</v>
       </c>
       <c r="K6" t="n">
-        <v>669652.3159637155</v>
+        <v>669570.649915351</v>
       </c>
       <c r="L6" t="n">
-        <v>624227.7571123556</v>
+        <v>624227.7571123552</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822307</v>
+        <v>543932.2539822306</v>
       </c>
       <c r="N6" t="n">
+        <v>678733.2692160679</v>
+      </c>
+      <c r="O6" t="n">
+        <v>678733.2692160677</v>
+      </c>
+      <c r="P6" t="n">
         <v>678733.269216068</v>
-      </c>
-      <c r="O6" t="n">
-        <v>678733.2692160679</v>
-      </c>
-      <c r="P6" t="n">
-        <v>678733.2692160677</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>11.04065132571142</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.04065132571142</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.04065132571142</v>
+      </c>
+      <c r="J2" t="n">
         <v>11.04065132571136</v>
       </c>
-      <c r="H2" t="n">
-        <v>11.04065132571139</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.04065132571139</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.04065132571143</v>
-      </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,22 +26756,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>11.04065132571136</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>11.04065132571136</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>93.2480852237353</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172465</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>133.680862922387</v>
+        <v>28.47326068486274</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.8549834249328</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,13 +28056,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,13 +28102,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28333,19 +28333,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="20">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,22 +29983,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>499.1748421909898</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>616.5391140644629</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178656</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
@@ -36051,16 +36051,16 @@
         <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313149</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>588.0961736712726</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M24" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
@@ -36528,13 +36528,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127688</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36914,10 +36914,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37005,10 +37005,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.0477032746127</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>267.9956786389378</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>502.4808891147315</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
